--- a/test/fixtures/files/populated_templates/populated-base-samples-template-with-assay-no-study.xlsx
+++ b/test/fixtures/files/populated_templates/populated-base-samples-template-with-assay-no-study.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="292">
   <si>
     <t>FREETEXT</t>
   </si>
@@ -917,9 +917,6 @@
     <t>My Description</t>
   </si>
   <si>
-    <t>http://localhost:3000/assays/1</t>
-  </si>
-  <si>
     <t>My Assay Title</t>
   </si>
   <si>
@@ -930,7 +927,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -1017,15 +1014,8 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1048,12 +1038,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1150,7 +1134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1193,8 +1177,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1689,7 +1672,7 @@
   <dimension ref="A2:AMJ19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1708,24 +1691,24 @@
         <v>278</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="12"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -1734,12 +1717,12 @@
       <c r="C4" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -1748,12 +1731,12 @@
       <c r="C5" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -1762,24 +1745,24 @@
       <c r="C6" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
@@ -1807,8 +1790,8 @@
       <c r="B10" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>290</v>
+      <c r="C10" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -1849,14 +1832,14 @@
       <c r="B14" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>282</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -1864,7 +1847,7 @@
         <v>283</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="18" x14ac:dyDescent="0.25">
@@ -1896,7 +1879,7 @@
     <mergeCell ref="E2:J6"/>
     <mergeCell ref="E7:J7"/>
   </mergeCells>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="custom" allowBlank="1" sqref="C19">
       <formula1>AND(A1&lt;&gt;"propliteral^wksowlv0")</formula1>
     </dataValidation>
@@ -1912,27 +1895,28 @@
     <dataValidation type="custom" allowBlank="1" sqref="C5">
       <formula1>AND(A1&lt;&gt;"propliteral^wksowlv4")</formula1>
     </dataValidation>
+    <dataValidation type="custom" allowBlank="1" sqref="C14">
+      <formula1>AND(A1&lt;&gt;"propliteral^wksowlv5")</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" sqref="C16">
       <formula1>AND(A1&lt;&gt;"propliteral^wksowlv6")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" sqref="C6 C10">
+    <dataValidation type="custom" allowBlank="1" sqref="C6">
       <formula1>AND(A1&lt;&gt;"propliteral^wksowlv7")</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" sqref="C4">
       <formula1>AND(A1&lt;&gt;"propliteral^wksowlv8")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" sqref="C14">
-      <formula1>AND(B2&lt;&gt;"propliteral^wksowlv0")</formula1>
-      <formula2>0</formula2>
+    <dataValidation type="custom" allowBlank="1" sqref="C10">
+      <formula1>AND(A1&lt;&gt;"propliteral^wksowlv9")</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" display="Master metadatasheet guide"/>
-    <hyperlink ref="C10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
